--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64918E5-1D79-1044-BC96-63C15BD74A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758C2B6C-60F6-E440-8135-1B0189834008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>chepno nickel pantheonic</t>
   </si>
@@ -173,10 +173,69 @@
     <t>ruplin_api_key_site_specific</t>
   </si>
   <si>
-    <t>veyra_api_key_site_specific</t>
-  </si>
-  <si>
-    <t>grove_api_key_site_specific</t>
+    <t>harbor_api_key_site_specific</t>
+  </si>
+  <si>
+    <t>please create sql that i can run in supabase to do the following</t>
+  </si>
+  <si>
+    <t>create these new db fields in existing db table sitespren</t>
+  </si>
+  <si>
+    <t>they will store our own custom api keys for new system</t>
+  </si>
+  <si>
+    <t>klyra_api_key_site_specific</t>
+  </si>
+  <si>
+    <t>vez_user_accounts.id</t>
+  </si>
+  <si>
+    <t>users.fk_imgplanbatch_id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vez</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_user_accounts.fk_imgplanbatch_id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vez</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_user_accounts.vez_fk_imgslategroup_id</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -658,11 +717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD632C1F-3CA5-C447-B8E4-947556DA4539}">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -950,21 +1009,58 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="5:5">
-      <c r="E116" t="s">
+    <row r="119" spans="5:5">
+      <c r="E119" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5">
+      <c r="E121" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5">
+      <c r="E122" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="5:5">
-      <c r="E117" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="118" spans="5:5">
-      <c r="E118" t="s">
+    <row r="123" spans="5:5">
+      <c r="E123" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="124" spans="5:5">
+      <c r="E124" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5">
+      <c r="E129" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5">
+      <c r="E131" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5">
+      <c r="E132" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5">
+      <c r="E133" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5" s="2" customFormat="1"/>
+    <row r="139" spans="5:5" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758C2B6C-60F6-E440-8135-1B0189834008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FDD25B-2179-B84C-BCFD-0AC02DF9376F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>chepno nickel pantheonic</t>
   </si>
@@ -236,6 +236,9 @@
       </rPr>
       <t>_user_accounts.vez_fk_imgslategroup_id</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -717,11 +720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD632C1F-3CA5-C447-B8E4-947556DA4539}">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E140" sqref="E140"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1061,6 +1064,11 @@
     </row>
     <row r="138" spans="5:5" s="2" customFormat="1"/>
     <row r="139" spans="5:5" s="1" customFormat="1"/>
+    <row r="145" spans="5:5">
+      <c r="E145" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FDD25B-2179-B84C-BCFD-0AC02DF9376F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4C9F54-DA05-254A-BFA1-528D29C85CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -723,8 +723,8 @@
   <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4C9F54-DA05-254A-BFA1-528D29C85CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD1324C-E46D-A443-82F3-EF8C34E50E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD1324C-E46D-A443-82F3-EF8C34E50E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A0300C-9409-0C46-B7C5-1719037C4563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -724,7 +724,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
+      <selection pane="bottomLeft" activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A0300C-9409-0C46-B7C5-1719037C4563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB81342-3638-454A-9880-E1CE1AF5D6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>chepno nickel pantheonic</t>
   </si>
@@ -238,7 +238,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>in existing db table</t>
+  </si>
+  <si>
+    <t>karma_wizard_sessions</t>
+  </si>
+  <si>
+    <t>create new db columns:</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>———————————————————————</t>
+  </si>
+  <si>
+    <t>account_level_harbor_api_key</t>
+  </si>
+  <si>
+    <t>account_level_klyra_api_key</t>
   </si>
 </sst>
 </file>
@@ -720,11 +738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD632C1F-3CA5-C447-B8E4-947556DA4539}">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E142" sqref="E142"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1064,9 +1082,44 @@
     </row>
     <row r="138" spans="5:5" s="2" customFormat="1"/>
     <row r="139" spans="5:5" s="1" customFormat="1"/>
-    <row r="145" spans="5:5">
-      <c r="E145" t="s">
+    <row r="141" spans="5:5">
+      <c r="E141" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="142" spans="5:5">
+      <c r="E142" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="143" spans="5:5">
+      <c r="E143" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="5:5">
+      <c r="E144" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5">
+      <c r="E147" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5">
+      <c r="E148" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5">
+      <c r="E150" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5">
+      <c r="E152" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB81342-3638-454A-9880-E1CE1AF5D6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF45A68-249D-6F41-A953-ACFC51170798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>chepno nickel pantheonic</t>
   </si>
@@ -253,10 +253,16 @@
     <t>———————————————————————</t>
   </si>
   <si>
-    <t>account_level_harbor_api_key</t>
-  </si>
-  <si>
-    <t>account_level_klyra_api_key</t>
+    <t>http://localhost:3000/example_firestorm_badge</t>
+  </si>
+  <si>
+    <t>harbor_api_key_account_level</t>
+  </si>
+  <si>
+    <t>klyra_api_key_account_level</t>
+  </si>
+  <si>
+    <t>users</t>
   </si>
 </sst>
 </file>
@@ -738,11 +744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD632C1F-3CA5-C447-B8E4-947556DA4539}">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E157" sqref="E157"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -756,6 +762,9 @@
       <c r="A1" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1"/>
     <row r="10" spans="1:5" s="1" customFormat="1"/>
@@ -1080,31 +1089,31 @@
         <v>53</v>
       </c>
     </row>
-    <row r="138" spans="5:5" s="2" customFormat="1"/>
-    <row r="139" spans="5:5" s="1" customFormat="1"/>
-    <row r="141" spans="5:5">
-      <c r="E141" t="s">
-        <v>46</v>
-      </c>
-    </row>
+    <row r="137" spans="5:5">
+      <c r="E137" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139" spans="5:5" s="2" customFormat="1"/>
+    <row r="140" spans="5:5" s="1" customFormat="1"/>
     <row r="142" spans="5:5">
       <c r="E142" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="5:5">
       <c r="E143" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="144" spans="5:5">
       <c r="E144" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="147" spans="5:5">
-      <c r="E147" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="148" spans="5:5">
@@ -1112,13 +1121,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="5:5">
-      <c r="E150" t="s">
-        <v>57</v>
+    <row r="149" spans="5:5">
+      <c r="E149" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="152" spans="5:5">
       <c r="E152" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5">
+      <c r="E154" t="s">
         <v>58</v>
       </c>
     </row>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF45A68-249D-6F41-A953-ACFC51170798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE58A8C9-E7E2-634A-B9E4-443E72A88393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -747,7 +747,7 @@
   <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE58A8C9-E7E2-634A-B9E4-443E72A88393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE64285-8A26-D04E-95CA-F4E04B6CF24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>chepno nickel pantheonic</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>users</t>
+  </si>
+  <si>
+    <t>harbor_api_key</t>
+  </si>
+  <si>
+    <t>klyra_api_key</t>
   </si>
 </sst>
 </file>
@@ -748,7 +754,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E151" sqref="E151"/>
+      <selection pane="bottomLeft" activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1111,27 +1117,33 @@
         <v>62</v>
       </c>
     </row>
-    <row r="145" spans="5:5">
+    <row r="145" spans="5:7">
       <c r="E145" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="5:5">
-      <c r="E148" t="s">
+    <row r="148" spans="5:7">
+      <c r="F148" t="s">
+        <v>63</v>
+      </c>
+      <c r="G148" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="5:5">
-      <c r="E149" t="s">
+    <row r="149" spans="5:7">
+      <c r="F149" t="s">
+        <v>64</v>
+      </c>
+      <c r="G149" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="152" spans="5:5">
+    <row r="152" spans="5:7">
       <c r="E152" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="154" spans="5:5">
+    <row r="154" spans="5:7">
       <c r="E154" t="s">
         <v>58</v>
       </c>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE64285-8A26-D04E-95CA-F4E04B6CF24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FEC69B-08DF-B446-8EF8-1057A8BD7527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>chepno nickel pantheonic</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>klyra_api_key</t>
+  </si>
+  <si>
+    <t>new interface for user testing plugins and sites</t>
   </si>
 </sst>
 </file>
@@ -750,11 +753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD632C1F-3CA5-C447-B8E4-947556DA4539}">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E156" sqref="E156"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1148,6 +1151,12 @@
         <v>58</v>
       </c>
     </row>
+    <row r="156" spans="5:7" s="2" customFormat="1"/>
+    <row r="157" spans="5:7" s="1" customFormat="1">
+      <c r="E157" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FEC69B-08DF-B446-8EF8-1057A8BD7527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A572D9F1-37B8-8B45-871A-49050F8E5A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>chepno nickel pantheonic</t>
   </si>
@@ -272,6 +272,18 @@
   </si>
   <si>
     <t>new interface for user testing plugins and sites</t>
+  </si>
+  <si>
+    <t>5nezl.ksit.me</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>brimora_api_key</t>
+  </si>
+  <si>
+    <t>brimora_api_key_site_specific</t>
   </si>
 </sst>
 </file>
@@ -313,7 +325,7 @@
       <name val="Inter"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +356,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -357,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -370,6 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,11 +772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD632C1F-3CA5-C447-B8E4-947556DA4539}">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E160" sqref="E160"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1157,6 +1176,39 @@
         <v>65</v>
       </c>
     </row>
+    <row r="161" spans="4:5">
+      <c r="D161" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5">
+      <c r="E165" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5">
+      <c r="E166" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="170" spans="4:5">
+      <c r="E170" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="172" spans="4:5">
+      <c r="E172" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="173" spans="4:5">
+      <c r="E173" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A572D9F1-37B8-8B45-871A-49050F8E5A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710E86DA-4DBF-6A4F-88AA-72A739E2DDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -776,7 +776,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E174" sqref="E174"/>
+      <selection pane="bottomLeft" activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710E86DA-4DBF-6A4F-88AA-72A739E2DDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2761770-262E-C347-8C4C-21E8BC0532F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
   <si>
     <t>chepno nickel pantheonic</t>
   </si>
@@ -284,6 +284,42 @@
   </si>
   <si>
     <t>brimora_api_key_site_specific</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/c/68beeb3f-19e8-832f-927a-d85ac690cf88</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/sitejar4?is_external=show</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/karmawiz?step=1</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/karmajar</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/bin34/tebnar2?batchid=68283949-407c-4477-bf07-26345c022745</t>
+  </si>
+  <si>
+    <t>https://supabase.com/dashboard/project/jerylujyofmmjukwlwvn/editor/17256?schema=public</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/nwjar1?coltemp=option1&amp;sitebase=6bev.ksit.me&amp;fpop=open&amp;ptab1=active</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/gconjar1?sitebase=6bev.ksit.me&amp;coltemp=option1</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/bin42/narpo1</t>
+  </si>
+  <si>
+    <t>https://6bev.ksit.me/wp-admin/upload.php</t>
+  </si>
+  <si>
+    <t>https://6bev.ksit.me/individual-service-page-1/</t>
+  </si>
+  <si>
+    <t>important page urls in our app</t>
   </si>
 </sst>
 </file>
@@ -772,11 +808,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD632C1F-3CA5-C447-B8E4-947556DA4539}">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E167" sqref="E167"/>
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E181" sqref="E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1209,6 +1245,77 @@
         <v>69</v>
       </c>
     </row>
+    <row r="179" spans="5:5" s="2" customFormat="1"/>
+    <row r="180" spans="5:5" s="1" customFormat="1">
+      <c r="E180" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="183" spans="5:5">
+      <c r="E183" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="184" spans="5:5">
+      <c r="E184" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="185" spans="5:5">
+      <c r="E185" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="186" spans="5:5">
+      <c r="E186" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="187" spans="5:5">
+      <c r="E187" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="188" spans="5:5">
+      <c r="E188" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="189" spans="5:5">
+      <c r="E189" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="190" spans="5:5">
+      <c r="E190" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="191" spans="5:5">
+      <c r="E191" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="192" spans="5:5">
+      <c r="E192" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="193" spans="5:5">
+      <c r="E193" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="194" spans="5:5">
+      <c r="E194" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="195" spans="5:5">
+      <c r="E195" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2761770-262E-C347-8C4C-21E8BC0532F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C76A62-56D7-9744-9C5F-93A523C407DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -811,8 +811,8 @@
   <dimension ref="A1:H195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E181" sqref="E181"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C76A62-56D7-9744-9C5F-93A523C407DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D687AB33-3F5D-2C49-8679-9BC7FBAD5F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -326,7 +326,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -352,6 +352,14 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,10 +416,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -419,14 +428,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -811,8 +822,8 @@
   <dimension ref="A1:H195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E210" sqref="E210"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1302,7 +1313,7 @@
       </c>
     </row>
     <row r="193" spans="5:5">
-      <c r="E193" t="s">
+      <c r="E193" s="11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1317,7 +1328,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E193" r:id="rId1" xr:uid="{FED81138-A76B-1546-AE48-DD69F8F5587E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D687AB33-3F5D-2C49-8679-9BC7FBAD5F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5752515-31E4-F94B-8A2F-A2674A236A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>chepno nickel pantheonic</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>important page urls in our app</t>
+  </si>
+  <si>
+    <t>ff</t>
   </si>
 </sst>
 </file>
@@ -822,8 +825,8 @@
   <dimension ref="A1:H195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C187" sqref="C187"/>
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1256,82 +1259,161 @@
         <v>69</v>
       </c>
     </row>
-    <row r="179" spans="5:5" s="2" customFormat="1"/>
-    <row r="180" spans="5:5" s="1" customFormat="1">
+    <row r="179" spans="4:6" s="2" customFormat="1"/>
+    <row r="180" spans="4:6" s="1" customFormat="1">
       <c r="E180" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="183" spans="5:5">
+    <row r="183" spans="4:6">
+      <c r="D183" t="s">
+        <v>70</v>
+      </c>
       <c r="E183" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="184" spans="5:5">
+      <c r="F183" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="184" spans="4:6">
+      <c r="D184" t="s">
+        <v>71</v>
+      </c>
       <c r="E184" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="185" spans="5:5">
+      <c r="F184" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="185" spans="4:6">
+      <c r="D185" t="s">
+        <v>72</v>
+      </c>
       <c r="E185" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="186" spans="5:5">
+      <c r="F185" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="186" spans="4:6">
+      <c r="D186" t="s">
+        <v>73</v>
+      </c>
       <c r="E186" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="187" spans="5:5">
+      <c r="F186" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="187" spans="4:6">
+      <c r="D187" t="s">
+        <v>74</v>
+      </c>
       <c r="E187" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="188" spans="5:5">
+      <c r="F187" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="188" spans="4:6">
+      <c r="D188" t="s">
+        <v>75</v>
+      </c>
       <c r="E188" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="189" spans="5:5">
+      <c r="F188" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="189" spans="4:6">
+      <c r="D189" t="s">
+        <v>71</v>
+      </c>
       <c r="E189" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="190" spans="5:5">
+      <c r="F189" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="190" spans="4:6">
+      <c r="D190" t="s">
+        <v>76</v>
+      </c>
       <c r="E190" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="191" spans="5:5">
+      <c r="F190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="191" spans="4:6">
+      <c r="D191" t="s">
+        <v>77</v>
+      </c>
       <c r="E191" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="192" spans="5:5">
+      <c r="F191" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="192" spans="4:6">
+      <c r="D192" t="s">
+        <v>71</v>
+      </c>
       <c r="E192" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="193" spans="5:5">
+      <c r="F192" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="193" spans="4:6">
+      <c r="D193" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E193" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="194" spans="5:5">
+      <c r="F193" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="194" spans="4:6">
+      <c r="D194" t="s">
+        <v>79</v>
+      </c>
       <c r="E194" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="195" spans="5:5">
+      <c r="F194" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="195" spans="4:6">
+      <c r="D195" t="s">
+        <v>80</v>
+      </c>
       <c r="E195" t="s">
         <v>80</v>
+      </c>
+      <c r="F195" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E193" r:id="rId1" xr:uid="{FED81138-A76B-1546-AE48-DD69F8F5587E}"/>
+    <hyperlink ref="D193" r:id="rId2" xr:uid="{5204A14C-A80B-A540-B99D-8D73B158712D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5752515-31E4-F94B-8A2F-A2674A236A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7699F16E-F942-384D-9931-46ECDBA90C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E200" sqref="E200"/>
+      <selection pane="bottomLeft" activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7699F16E-F942-384D-9931-46ECDBA90C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50075E-54E3-DE46-A745-0E81421AFE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E187" sqref="E187"/>
+      <selection pane="bottomLeft" activeCell="G192" sqref="G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50075E-54E3-DE46-A745-0E81421AFE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3399A050-3A98-5144-B49A-E5BC15E20DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
   <si>
     <t>chepno nickel pantheonic</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>ff</t>
+  </si>
+  <si>
+    <t>possibly remove regolith whatsoever as being central</t>
+  </si>
+  <si>
+    <t>in new boulder function</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -438,6 +444,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -822,11 +829,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD632C1F-3CA5-C447-B8E4-947556DA4539}">
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G192" sqref="G192"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1408,6 +1415,16 @@
         <v>82</v>
       </c>
     </row>
+    <row r="201" spans="4:6">
+      <c r="E201" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="202" spans="4:6">
+      <c r="E202" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E193" r:id="rId1" xr:uid="{FED81138-A76B-1546-AE48-DD69F8F5587E}"/>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3399A050-3A98-5144-B49A-E5BC15E20DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1E27F1-8CEE-7141-ADD8-DFA83A3774B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -832,8 +832,8 @@
   <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E198" sqref="E198"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E196" sqref="E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1E27F1-8CEE-7141-ADD8-DFA83A3774B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC9891-5FC2-EB42-AF8F-2634E0F26ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -832,8 +832,8 @@
   <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E196" sqref="E196"/>
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC9891-5FC2-EB42-AF8F-2634E0F26ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC3BEF1-FD31-7E49-B78E-A1193123E9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -833,7 +833,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E207" sqref="E207"/>
+      <selection pane="bottomLeft" activeCell="E197" sqref="E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC3BEF1-FD31-7E49-B78E-A1193123E9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E28358-E32D-5543-AD5A-30A00C875DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -832,8 +832,8 @@
   <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E197" sqref="E197"/>
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/pantheonic chepno table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E28358-E32D-5543-AD5A-30A00C875DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166BB796-49CF-6949-ABBC-839F060A63EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{50A38606-82DE-8842-84D1-FE3FBCCC812B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>chepno nickel pantheonic</t>
   </si>
@@ -329,6 +329,15 @@
   </si>
   <si>
     <t>in new boulder function</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1iaFhLCfOjc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rAjcXxYTrv4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5PknSpk3m1w</t>
   </si>
 </sst>
 </file>
@@ -829,11 +838,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD632C1F-3CA5-C447-B8E4-947556DA4539}">
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E207" sqref="E207"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1425,6 +1434,21 @@
         <v>84</v>
       </c>
     </row>
+    <row r="206" spans="4:6">
+      <c r="E206" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="207" spans="4:6">
+      <c r="E207" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5">
+      <c r="E209" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E193" r:id="rId1" xr:uid="{FED81138-A76B-1546-AE48-DD69F8F5587E}"/>
